--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\Selenium\MerchantUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\Selenium\MerchantUI\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidSignUp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>Username</t>
   </si>
@@ -72,6 +73,115 @@
   </si>
   <si>
     <t>Test With No Username No Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Organisation Name</t>
+  </si>
+  <si>
+    <t>Site URL</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Support Number</t>
+  </si>
+  <si>
+    <t>Contact Email Address</t>
+  </si>
+  <si>
+    <t>Contact Person's Name</t>
+  </si>
+  <si>
+    <t>Contact Telephone Number</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Paymentz</t>
+  </si>
+  <si>
+    <t>www.paymentz.com</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>automate@paymentz.com</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>SignUp With No Username</t>
+  </si>
+  <si>
+    <t>Username or Email Address entered is incorrect.</t>
+  </si>
+  <si>
+    <t>Bala Kumar</t>
+  </si>
+  <si>
+    <t>SignUp With No Password</t>
+  </si>
+  <si>
+    <t>SignUp With No ConfirmPassword</t>
+  </si>
+  <si>
+    <t>SignUp With No OrganisationName</t>
+  </si>
+  <si>
+    <t>SignUp With No SiteURL</t>
+  </si>
+  <si>
+    <t>SignUp With No Country</t>
+  </si>
+  <si>
+    <t>SignUp With No SupportNumber</t>
+  </si>
+  <si>
+    <t>SignUp With No EmailAddress</t>
+  </si>
+  <si>
+    <t>SignUp With No ContactPersonName</t>
+  </si>
+  <si>
+    <t>SignUp With No TelephoneNumber</t>
+  </si>
+  <si>
+    <t>Please enter valid Password/Confirm Password.</t>
+  </si>
+  <si>
+    <t>Please enter valid Organisation Name.</t>
+  </si>
+  <si>
+    <t>Site name is Invalid. Check example for enter VALID site name.</t>
+  </si>
+  <si>
+    <t>Please enter Valid Country Name.
+Please enter valid phone cc.</t>
+  </si>
+  <si>
+    <t>Please enter valid telephone number.</t>
+  </si>
+  <si>
+    <t>Please enter valid Contact telephone number .</t>
+  </si>
+  <si>
+    <t>Please enter valid Contact emailaddress.</t>
+  </si>
+  <si>
+    <t>Please Enter valid Contact Person.</t>
   </si>
 </sst>
 </file>
@@ -95,12 +205,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,9 +232,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,4 +607,464 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>9865591567</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>1402587896</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>9865591567</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>1402587896</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>9865591567</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>1402587896</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>9865591567</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>1402587896</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>9865591567</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>1402587896</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>9865591567</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>1402587896</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>1402587896</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>9865591567</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>1402587896</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>9865591567</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>1402587896</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>9865591567</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="B8" r:id="rId9"/>
+    <hyperlink ref="B9" r:id="rId10"/>
+    <hyperlink ref="B10" r:id="rId11"/>
+    <hyperlink ref="B11" r:id="rId12"/>
+    <hyperlink ref="C3" r:id="rId13"/>
+    <hyperlink ref="C5" r:id="rId14"/>
+    <hyperlink ref="C6" r:id="rId15"/>
+    <hyperlink ref="C7" r:id="rId16"/>
+    <hyperlink ref="C8" r:id="rId17"/>
+    <hyperlink ref="C9" r:id="rId18"/>
+    <hyperlink ref="C10" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId20"/>
+    <hyperlink ref="E3" r:id="rId21"/>
+    <hyperlink ref="E4" r:id="rId22"/>
+    <hyperlink ref="E5" r:id="rId23"/>
+    <hyperlink ref="E7" r:id="rId24"/>
+    <hyperlink ref="E8" r:id="rId25"/>
+    <hyperlink ref="E9" r:id="rId26"/>
+    <hyperlink ref="E10" r:id="rId27"/>
+    <hyperlink ref="E11" r:id="rId28"/>
+    <hyperlink ref="H3" r:id="rId29"/>
+    <hyperlink ref="H4" r:id="rId30"/>
+    <hyperlink ref="H5" r:id="rId31"/>
+    <hyperlink ref="H6" r:id="rId32"/>
+    <hyperlink ref="H7" r:id="rId33"/>
+    <hyperlink ref="H8" r:id="rId34"/>
+    <hyperlink ref="H10" r:id="rId35"/>
+    <hyperlink ref="H11" r:id="rId36"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId37"/>
+</worksheet>
 </file>
--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>Username</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Paymentz</t>
-  </si>
-  <si>
-    <t>www.paymentz.com</t>
   </si>
   <si>
     <t>India</t>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>Please Enter valid Contact Person.</t>
+  </si>
+  <si>
+    <t>http://www.paymentz.com</t>
   </si>
 </sst>
 </file>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
@@ -682,33 +682,33 @@
         <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
       </c>
       <c r="G2">
         <v>9865591567</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
       </c>
       <c r="J2">
         <v>1402587896</v>
       </c>
       <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -718,33 +718,33 @@
         <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
       </c>
       <c r="G3">
         <v>9865591567</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
       </c>
       <c r="J3">
         <v>1402587896</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -754,33 +754,33 @@
         <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
       </c>
       <c r="G4">
         <v>9865591567</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
       </c>
       <c r="J4">
         <v>1402587896</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -789,33 +789,33 @@
         <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
       </c>
       <c r="G5">
         <v>9865591567</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
       </c>
       <c r="J5">
         <v>1402587896</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
@@ -826,32 +826,34 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>9865591567</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
       </c>
       <c r="J6">
         <v>1402587896</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -863,30 +865,30 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>9865591567</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
         <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
       </c>
       <c r="J7">
         <v>1402587896</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -898,30 +900,30 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" t="s">
         <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
       </c>
       <c r="J8">
         <v>1402587896</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -933,31 +935,31 @@
         <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
       </c>
       <c r="G9">
         <v>9865591567</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9">
         <v>1402587896</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
@@ -969,30 +971,30 @@
         <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
       </c>
       <c r="G10">
         <v>9865591567</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10">
         <v>1402587896</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
@@ -1004,25 +1006,25 @@
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
       </c>
       <c r="G11">
         <v>9865591567</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1047,24 +1049,17 @@
     <hyperlink ref="C9" r:id="rId18"/>
     <hyperlink ref="C10" r:id="rId19"/>
     <hyperlink ref="C11" r:id="rId20"/>
-    <hyperlink ref="E3" r:id="rId21"/>
-    <hyperlink ref="E4" r:id="rId22"/>
-    <hyperlink ref="E5" r:id="rId23"/>
-    <hyperlink ref="E7" r:id="rId24"/>
-    <hyperlink ref="E8" r:id="rId25"/>
-    <hyperlink ref="E9" r:id="rId26"/>
-    <hyperlink ref="E10" r:id="rId27"/>
-    <hyperlink ref="E11" r:id="rId28"/>
-    <hyperlink ref="H3" r:id="rId29"/>
-    <hyperlink ref="H4" r:id="rId30"/>
-    <hyperlink ref="H5" r:id="rId31"/>
-    <hyperlink ref="H6" r:id="rId32"/>
-    <hyperlink ref="H7" r:id="rId33"/>
-    <hyperlink ref="H8" r:id="rId34"/>
-    <hyperlink ref="H10" r:id="rId35"/>
-    <hyperlink ref="H11" r:id="rId36"/>
+    <hyperlink ref="H3" r:id="rId21"/>
+    <hyperlink ref="H4" r:id="rId22"/>
+    <hyperlink ref="H5" r:id="rId23"/>
+    <hyperlink ref="H6" r:id="rId24"/>
+    <hyperlink ref="H7" r:id="rId25"/>
+    <hyperlink ref="H8" r:id="rId26"/>
+    <hyperlink ref="H10" r:id="rId27"/>
+    <hyperlink ref="H11" r:id="rId28"/>
+    <hyperlink ref="E3:E11" r:id="rId29" display="http://www.paymentz.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId37"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId30"/>
 </worksheet>
 </file>